--- a/trend_results/Rivers/RangitikeiatusRiverlandsSTP_fb361fd7bc.xlsx
+++ b/trend_results/Rivers/RangitikeiatusRiverlandsSTP_fb361fd7bc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0144093666251378</v>
+        <v>0.985590633374862</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.543874583767134</v>
+        <v>0.456125416232866</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0803567687788294</v>
+        <v>0.919643231221171</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.586848645877154</v>
+        <v>0.413151354122846</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.660027887784383</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0143884892086331</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.553956834532374</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0050079981718464</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0201169843647544</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0368948176920998</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.455272561076949</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.719622244491922</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0100343406593404</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0200667610962078</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0425418971991707</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.094485316942942</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>7.86295374355576e-05</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0424242424242424</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.242424242424242</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0005005138746145</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0002875526770509</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0007994046047069999</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.57509910438996</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.855070545762038</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.63030303030303</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-2.14270586705584</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-6.58755874249024</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.04896023433962</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-2.14270586705584</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0355226262780882</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.605095541401274</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.471337579617834</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0001411139826697</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.367741935483871</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.12258064516129</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.56106393606394e-05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0001664386948288</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.82442557442557</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.171891713712508</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.27741935483871</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.619354838709677</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0005010287289577</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999981559898156</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.925</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0289880952380953</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0177428326848296</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.039748733150918</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.365780381553254</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.371721398580937</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.6787878787878791</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0008038129902999</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0015007153628399</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.822936748906938</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5575757575757579</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0014295499021526</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0050209623460618</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0013452816413824</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.6680139729685241</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.360300156978388</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9.99589490968802e-05</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0003999526782549</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0007133195903868</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.322448222893162</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rangitikei at us Riverlands STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.962651976258506</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.951515151515152</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.154788106630212</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.375965635084029</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.0182668332053032</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-2.52921742859823</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1802380.424</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5548497.505</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/RangitikeiatusRiverlandsSTP_fb361fd7bc.xlsx
+++ b/trend_results/Rivers/RangitikeiatusRiverlandsSTP_fb361fd7bc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.971511912332969</v>
+        <v>0.194464609246052</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.773584905660377</v>
+        <v>0.725490196078431</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0984501347708895</v>
+        <v>-0.0388977635782747</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0171418571000607</v>
+        <v>-0.171053155019991</v>
       </c>
       <c r="M2" t="n">
-        <v>0.199611554260633</v>
+        <v>0.0302407096906857</v>
       </c>
       <c r="N2" t="n">
-        <v>9.845013477088949</v>
+        <v>-6.48296059637913</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.985590633374862</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.929824561403509</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.62</v>
+        <v>10.635</v>
       </c>
       <c r="K3" t="n">
-        <v>0.124855867346938</v>
+        <v>0.0012534176349967</v>
       </c>
       <c r="L3" t="n">
-        <v>0.030998841439981</v>
+        <v>-0.0671638896221067</v>
       </c>
       <c r="M3" t="n">
-        <v>0.255553774999457</v>
+        <v>0.071851373540871</v>
       </c>
       <c r="N3" t="n">
-        <v>1.17566730081863</v>
+        <v>0.0117857793605715</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.335961866456512</v>
+        <v>0.005468374672366</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.017</v>
+        <v>0.0185</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003069327731092</v>
+        <v>0.0048917410714285</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0009258642212005</v>
+        <v>0.0017016371331004</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002074663487796</v>
+        <v>0.008829162685955299</v>
       </c>
       <c r="N4" t="n">
-        <v>1.80548690064261</v>
+        <v>26.4418436293436</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.57453674374344</v>
+        <v>0.0399428896024512</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.724137931034483</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>94.5</v>
+        <v>106</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.95740498034076</v>
+        <v>17.8114312856238</v>
       </c>
       <c r="L5" t="n">
-        <v>-15.9354942411357</v>
+        <v>0.557173211875702</v>
       </c>
       <c r="M5" t="n">
-        <v>11.8600376359994</v>
+        <v>33.9898199975165</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.01312696332356</v>
+        <v>16.8032370619093</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.156965633313166</v>
+        <v>0.0896124090494107</v>
       </c>
       <c r="G6" t="n">
-        <v>0.407407407407407</v>
+        <v>0.254545454545455</v>
       </c>
       <c r="H6" t="n">
-        <v>0.648148148148148</v>
+        <v>0.745454545454545</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0128378659018245</v>
+        <v>0.0201791805429027</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.0021042039427484</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0021870324633336</v>
+        <v>0.0069131970247813</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>10.4275985750499</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0331841722498027</v>
+        <v>0.315319172615145</v>
       </c>
       <c r="G7" t="n">
-        <v>0.206896551724138</v>
+        <v>0.155172413793103</v>
       </c>
       <c r="H7" t="n">
-        <v>0.224137931034483</v>
+        <v>0.241379310344828</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0003648851148851</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0002258998761401</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0007942269581418</v>
+        <v>0.0005702999648545</v>
       </c>
       <c r="N7" t="n">
-        <v>12.1628371628372</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.0892507641930672</v>
       </c>
       <c r="G8" t="n">
-        <v>0.172413793103448</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H8" t="n">
-        <v>0.775862068965517</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.063</v>
+        <v>0.091</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0040332204203563</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.007925889956655901</v>
+        <v>-7.46168193402775e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0034724096089396</v>
+        <v>0.0175619320732871</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4.43211035203994</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1206,35 +1206,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.456125416232866</v>
+        <v>0.169167526677445</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.736842105263158</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.039999999999999</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.0197943173511812</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0465736384132368</v>
+        <v>-0.0636920583475737</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0384899744611245</v>
+        <v>0.0149715554621759</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-0.24650457473451</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.529544511386084</v>
+        <v>0.158718815262866</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0517241379310345</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H10" t="n">
-        <v>0.827586206896552</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.111</v>
+        <v>0.168</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0014996678526391</v>
+        <v>0.0130446428571429</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0073647009643135</v>
+        <v>-0.0093710910970908</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0064289816357161</v>
+        <v>0.0439083405455874</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.35105211949474</v>
+        <v>7.76466836734694</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.963580981875016</v>
+        <v>0.208304477015604</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0689655172413793</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5344827586206899</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9.5</v>
+        <v>0.275</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.25069174246806</v>
+        <v>0.0153466386554622</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.01141294675107</v>
+        <v>-0.0144956097695704</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0619722514203243</v>
       </c>
       <c r="N11" t="n">
-        <v>-13.1651762365059</v>
+        <v>5.58059587471352</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.921638066027441</v>
+        <v>0.0581912968373888</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.637931034482759</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.21</v>
+        <v>0.0445</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0100343406593407</v>
+        <v>0.0085291895604395</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0432714907620622</v>
+        <v>-2.52825207056441e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0172322298476034</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.77825745682889</v>
+        <v>19.1667181133473</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.648970205308838</v>
+        <v>0.412482784417495</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.741379310344828</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0355</v>
+        <v>5.49</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0011995073891625</v>
+        <v>0.227372930304197</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0055513154781787</v>
+        <v>-0.424176534683208</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0022981402014459</v>
+        <v>0.583676446576373</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.37889405397904</v>
+        <v>4.14158342994895</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.983737909367336</v>
+        <v>0.758604265111704</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.019047619047619</v>
       </c>
       <c r="H14" t="n">
-        <v>0.982758620689655</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.925</v>
+        <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.489436911302983</v>
+        <v>0.009970427661510401</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.4052442075859</v>
+        <v>-0.0226321348691206</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.221430540911632</v>
+        <v>0.0244475569764503</v>
       </c>
       <c r="N14" t="n">
-        <v>-9.93780530564432</v>
+        <v>1.66173794358508</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.55919037595793</v>
+        <v>0.8926654614562261</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0186915887850467</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.663551401869159</v>
+        <v>0.905172413793103</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>10.6</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004969387755102</v>
+        <v>0.0232643312101906</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0500145642215559</v>
+        <v>-0.006689325524545</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0299178715572876</v>
+        <v>0.0535139804220237</v>
       </c>
       <c r="N15" t="n">
-        <v>0.496938775510205</v>
+        <v>0.219474822737647</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.919643231221171</v>
+        <v>0.0083526190855789</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.853448275862069</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.635</v>
+        <v>0.017</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0256615925058548</v>
+        <v>0.0007572232719256</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.00664951565421</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0531658780452019</v>
+        <v>0.0015051510989011</v>
       </c>
       <c r="N16" t="n">
-        <v>0.241293770623928</v>
+        <v>4.4542545407393</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0294738715944534</v>
+        <v>0.228983774323231</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.279661016949153</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.015</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003749363803557</v>
+        <v>2.12579365079365</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-2.85102203664561</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0009812122321919</v>
+        <v>6.95714285714286</v>
       </c>
       <c r="N17" t="n">
-        <v>2.49957586903819</v>
+        <v>2.12579365079365</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.294668782649206</v>
+        <v>6.341165487666621e-09</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="H18" t="n">
-        <v>0.593220338983051</v>
+        <v>0.535714285714286</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
-        <v>88.5</v>
+        <v>0.0063981591412017</v>
       </c>
       <c r="K18" t="n">
-        <v>1.31101938262742</v>
+        <v>0.0012131088852111</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.99751504701427</v>
+        <v>0.0004538385307815</v>
       </c>
       <c r="M18" t="n">
-        <v>5.3053835525197</v>
+        <v>0.0020192352804363</v>
       </c>
       <c r="N18" t="n">
-        <v>1.48137783347731</v>
+        <v>18.9602799561391</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.28208230123325e-05</v>
+        <v>0.0005310021072395</v>
       </c>
       <c r="G19" t="n">
-        <v>0.642857142857143</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="H19" t="n">
-        <v>0.455357142857143</v>
+        <v>0.144067796610169</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0005926702846636999</v>
+        <v>0.0003325060382324</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>6.66392993979201</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0010049800575424</v>
+        <v>7.84872196139218e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.245762711864407</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="H20" t="n">
-        <v>0.135593220338983</v>
+        <v>0.669491525423729</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.06155</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001661737943585</v>
+        <v>0.0029221410578239</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0006980986370625001</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0002507408462398</v>
+        <v>0.0067509972176113</v>
       </c>
       <c r="N20" t="n">
-        <v>5.53912647861692</v>
+        <v>4.74758904601781</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0001124338089216</v>
+        <v>0.310565022980002</v>
       </c>
       <c r="G21" t="n">
-        <v>0.313559322033898</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.61864406779661</v>
+        <v>0.617391304347826</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05145</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0011688894925451</v>
+        <v>-0.0033447802197801</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.01766385383299</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0032003436655487</v>
+        <v>0.0074978627234024</v>
       </c>
       <c r="N21" t="n">
-        <v>2.27189405742491</v>
+        <v>-0.0418097527472519</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.413151354122846</v>
+        <v>5.93709508582217e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="H22" t="n">
-        <v>0.626086956521739</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.01</v>
+        <v>0.1075</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0024965823650033</v>
+        <v>0.0072748969780219</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0176819033031853</v>
+        <v>0.0037994508211256</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0100177324291366</v>
+        <v>0.0144269496501191</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0311683191635876</v>
+        <v>6.76734602606696</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8.98998822141992e-05</v>
+        <v>0.006739324542293</v>
       </c>
       <c r="G23" t="n">
-        <v>0.11864406779661</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.677966101694915</v>
+        <v>0.584745762711864</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0037895408358246</v>
+        <v>0.0077612357111279</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0020010961308395</v>
+        <v>0.0026731934552273</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0062105785510237</v>
+        <v>0.0159171495887757</v>
       </c>
       <c r="N23" t="n">
-        <v>5.337381458908</v>
+        <v>3.23384821296998</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.756201509785874</v>
+        <v>0.0099151653816661</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0423728813559322</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.457627118644068</v>
+        <v>0.61864406779661</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>12</v>
+        <v>0.0355</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0356411007025761</v>
+        <v>0.0019965837656735</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.54671447193447</v>
+        <v>0.0005997536945812</v>
       </c>
       <c r="M24" t="n">
-        <v>0.14288753395201</v>
+        <v>0.0039830970556161</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.297009172521468</v>
+        <v>5.62417962161549</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0333847213064205</v>
+        <v>0.426672675337047</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.61864406779661</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.195</v>
+        <v>5.875</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0041663400955843</v>
+        <v>0.0173353456382705</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-0.226312844349207</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0080992019470939</v>
+        <v>0.256678289841805</v>
       </c>
       <c r="N25" t="n">
-        <v>2.13658466440223</v>
+        <v>0.295069712991839</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0073670085120763</v>
+        <v>0.195004682349985</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0134228187919463</v>
       </c>
       <c r="H26" t="n">
-        <v>0.542372881355932</v>
+        <v>0.550335570469799</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.029</v>
+        <v>0.95</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0012553837225785</v>
+        <v>-0.0126035196687371</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004245538878206</v>
+        <v>-0.0395047764262779</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0021679319509479</v>
+        <v>0.0064771983183922</v>
       </c>
       <c r="N26" t="n">
-        <v>4.32890938820202</v>
+        <v>-1.32668628091969</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.573327324662953</v>
+        <v>0.588870662920885</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.949152542372881</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.34</v>
+        <v>10.62</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0222403265345049</v>
+        <v>0.0033305471124619</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.272298454272896</v>
+        <v>-0.023587435971062</v>
       </c>
       <c r="M27" t="n">
-        <v>0.11616456101426</v>
+        <v>0.0287999274836497</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.416485515627432</v>
+        <v>0.0313610839214871</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.660027887784383</v>
+        <v>7.82643504634936e-08</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0143884892086331</v>
+        <v>0.0395480225988701</v>
       </c>
       <c r="H28" t="n">
-        <v>0.553956834532374</v>
+        <v>0.282485875706215</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>0.014</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0050079981718464</v>
+        <v>0.0007803296381931</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0201169843647544</v>
+        <v>0.0004969829152767</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0368948176920998</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N28" t="n">
-        <v>0.455272561076949</v>
+        <v>5.57378312995112</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.719622244491922</v>
+        <v>0.606521233365123</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.833333333333333</v>
+        <v>0.632768361581921</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>10.62</v>
+        <v>110</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0100343406593404</v>
+        <v>-0.455866884835022</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0200667610962078</v>
+        <v>-4.08998093647847</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0425418971991707</v>
+        <v>2.40337629981366</v>
       </c>
       <c r="N29" t="n">
-        <v>0.094485316942942</v>
+        <v>-0.414424440759111</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7.86295374355576e-05</v>
+        <v>0.0001851790377544</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0424242424242424</v>
+        <v>0.568047337278107</v>
       </c>
       <c r="H30" t="n">
-        <v>0.242424242424242</v>
+        <v>0.502958579881657</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
-        <v>0.014</v>
+        <v>0.0057790384389834</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0005005138746145</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0002875526770509</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0007994046047069999</v>
+        <v>0.0002212043071053</v>
       </c>
       <c r="N30" t="n">
-        <v>3.57509910438996</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.855070545762038</v>
+        <v>0.0001478619229472</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.353293413173653</v>
       </c>
       <c r="H31" t="n">
-        <v>0.63030303030303</v>
+        <v>0.119760479041916</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>0.0025</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.14270586705584</v>
+        <v>4.56106393606394e-05</v>
       </c>
       <c r="L31" t="n">
-        <v>-6.58755874249024</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04896023433962</v>
+        <v>0.0001663517692458</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.14270586705584</v>
+        <v>1.82442557442557</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0355226262780882</v>
+        <v>0.008658071439515001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.605095541401274</v>
+        <v>0.25748502994012</v>
       </c>
       <c r="H32" t="n">
-        <v>0.471337579617834</v>
+        <v>0.634730538922156</v>
       </c>
       <c r="I32" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.074</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0005006574747429</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0022374171203987</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.676564155058088</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0001411139826697</v>
+        <v>0.999913747819636</v>
       </c>
       <c r="G33" t="n">
-        <v>0.367741935483871</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12258064516129</v>
+        <v>0.546511627906977</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0025</v>
+        <v>7.93</v>
       </c>
       <c r="K33" t="n">
-        <v>4.56106393606394e-05</v>
+        <v>0.0222341997736783</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.012947021800568</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0001664386948288</v>
+        <v>0.0325564116230323</v>
       </c>
       <c r="N33" t="n">
-        <v>1.82442557442557</v>
+        <v>0.280380829428477</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.171891713712508</v>
+        <v>0.0306100440906035</v>
       </c>
       <c r="G34" t="n">
-        <v>0.27741935483871</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="H34" t="n">
-        <v>0.619354838709677</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.059</v>
+        <v>0.11</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.0015405881017401</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0005010287289577</v>
+        <v>0.0034289192959185</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.40053463794562</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999981559898156</v>
+        <v>0.288695693261211</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5625</v>
+        <v>0.548022598870056</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.925</v>
+        <v>0.24</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0289880952380953</v>
+        <v>0.0012553721551986</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0177428326848296</v>
+        <v>-0.0016896996289957</v>
       </c>
       <c r="M35" t="n">
-        <v>0.039748733150918</v>
+        <v>0.0039983579638752</v>
       </c>
       <c r="N35" t="n">
-        <v>0.365780381553254</v>
+        <v>0.523071731332761</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3651,35 +3651,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.371721398580937</v>
+        <v>0.0487603821793523</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0909090909090909</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6787878787878791</v>
+        <v>0.536723163841808</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.092</v>
+        <v>0.034</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0006466763322626</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0008038129902999</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0015007153628399</v>
+        <v>0.0014023433512763</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.90198921253714</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.822936748906938</v>
+        <v>0.744754967108164</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5575757575757579</v>
+        <v>0.937853107344633</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.214</v>
+        <v>6.72</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0014295499021526</v>
+        <v>-0.0565940202906498</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0050209623460618</v>
+        <v>-0.221155285643167</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0013452816413824</v>
+        <v>0.0605303426078369</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.6680139729685241</v>
+        <v>-0.842172920991813</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Rangitikei at us Riverlands STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.360300156978388</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.515151515151515</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="K38" t="n">
-        <v>9.99589490968802e-05</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.0003999526782549</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0007133195903868</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.322448222893162</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1802380.424</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5548497.505</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Rang_4a</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Rangitikei at us Riverlands STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.962651976258506</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.951515151515152</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.154788106630212</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.375965635084029</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-0.0182668332053032</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.52921742859823</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Extremely likely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1802380.424</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5548497.505</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Rang_4a</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/RangitikeiatusRiverlandsSTP_fb361fd7bc.xlsx
+++ b/trend_results/Rivers/RangitikeiatusRiverlandsSTP_fb361fd7bc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -130,34 +130,40 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>Likely improving</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Virtually certain increasing</t>
@@ -639,37 +645,37 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.194464609246052</v>
+        <v>0.0010703817766389</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.725490196078431</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="K2">
-        <v>-0.0388977635782747</v>
+        <v>-0.2435</v>
       </c>
       <c r="L2">
-        <v>-0.171053155019991</v>
+        <v>-0.439847291532622</v>
       </c>
       <c r="M2">
-        <v>0.0302407096906857</v>
+        <v>-0.07883365377371131</v>
       </c>
       <c r="N2">
-        <v>-6.48296059637913</v>
+        <v>-51.8085106382979</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>1802380.424</v>
@@ -678,19 +684,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -710,7 +716,7 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.134403371773833</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -722,25 +728,25 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.635</v>
+        <v>10.66</v>
       </c>
       <c r="K3">
-        <v>0.0012534176349967</v>
+        <v>-0.0443183379120877</v>
       </c>
       <c r="L3">
-        <v>-0.0671638896221067</v>
+        <v>-0.166344895563069</v>
       </c>
       <c r="M3">
-        <v>0.071851373540871</v>
+        <v>0.0430897320791376</v>
       </c>
       <c r="N3">
-        <v>0.0117857793605715</v>
+        <v>-0.415744258087127</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1802380.424</v>
@@ -749,19 +755,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -781,37 +787,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.005468374672366</v>
+        <v>2.67350633682352E-10</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.620689655172414</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0185</v>
+        <v>0.0205</v>
       </c>
       <c r="K4">
-        <v>0.0048917410714285</v>
+        <v>0.0159497816593886</v>
       </c>
       <c r="L4">
-        <v>0.0017016371331004</v>
+        <v>0.0094198494731936</v>
       </c>
       <c r="M4">
-        <v>0.008829162685955299</v>
+        <v>0.0228829022106217</v>
       </c>
       <c r="N4">
-        <v>26.4418436293436</v>
+        <v>77.8038129726275</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4">
         <v>1802380.424</v>
@@ -820,19 +826,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -852,37 +858,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.0399428896024512</v>
+        <v>3.00831062185517E-05</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.810344827586207</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>106</v>
+        <v>101.2</v>
       </c>
       <c r="K5">
-        <v>17.8114312856238</v>
+        <v>46.9607142857143</v>
       </c>
       <c r="L5">
-        <v>0.557173211875702</v>
+        <v>24.1434378761397</v>
       </c>
       <c r="M5">
-        <v>33.9898199975165</v>
+        <v>75.8484492032848</v>
       </c>
       <c r="N5">
-        <v>16.8032370619093</v>
+        <v>46.4038678712592</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q5">
         <v>1802380.424</v>
@@ -891,19 +897,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -923,37 +929,37 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.0896124090494107</v>
+        <v>0.0039579084176054</v>
       </c>
       <c r="G6">
-        <v>0.254545454545455</v>
+        <v>0.290909090909091</v>
       </c>
       <c r="H6">
-        <v>0.745454545454545</v>
+        <v>0.709090909090909</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0201791805429027</v>
+        <v>0.0202342717024557</v>
       </c>
       <c r="K6">
-        <v>0.0021042039427484</v>
+        <v>0.006736559535409</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0004469747833723</v>
       </c>
       <c r="M6">
-        <v>0.0069131970247813</v>
+        <v>0.0133185426490358</v>
       </c>
       <c r="N6">
-        <v>10.4275985750499</v>
+        <v>33.2928194029906</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q6">
         <v>1802380.424</v>
@@ -962,19 +968,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -991,16 +997,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>0.315319172615145</v>
+        <v>0.0177817139890831</v>
       </c>
       <c r="G7">
         <v>0.155172413793103</v>
       </c>
       <c r="H7">
-        <v>0.241379310344828</v>
+        <v>0.206896551724138</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1009,22 +1015,22 @@
         <v>0.004</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.0005435267857142</v>
       </c>
       <c r="L7">
-        <v>-0.0002258998761401</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0005702999648545</v>
+        <v>0.0009310714626032</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.5881696428571</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>1802380.424</v>
@@ -1033,19 +1039,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1062,40 +1068,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>0.0892507641930672</v>
+        <v>0.0003140818908353</v>
       </c>
       <c r="G8">
-        <v>0.137931034482759</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="H8">
-        <v>0.793103448275862</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.091</v>
+        <v>0.1115</v>
       </c>
       <c r="K8">
-        <v>0.0040332204203563</v>
+        <v>0.025837226917819</v>
       </c>
       <c r="L8">
-        <v>-7.46168193402775E-06</v>
+        <v>0.0119439441891466</v>
       </c>
       <c r="M8">
-        <v>0.0175619320732871</v>
+        <v>0.0391339285714286</v>
       </c>
       <c r="N8">
-        <v>4.43211035203994</v>
+        <v>23.1724008231561</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>1802380.424</v>
@@ -1104,19 +1110,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1136,13 +1142,13 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.169167526677445</v>
+        <v>0.312803273860059</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.719298245614035</v>
+        <v>0.75</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1151,22 +1157,22 @@
         <v>8.029999999999999</v>
       </c>
       <c r="K9">
-        <v>-0.0197943173511812</v>
+        <v>-0.0139145605698035</v>
       </c>
       <c r="L9">
-        <v>-0.0636920583475737</v>
+        <v>-0.0699166538718981</v>
       </c>
       <c r="M9">
-        <v>0.0149715554621759</v>
+        <v>0.0353694565583928</v>
       </c>
       <c r="N9">
-        <v>-0.24650457473451</v>
+        <v>-0.173282198876755</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <v>1802380.424</v>
@@ -1175,16 +1181,16 @@
         <v>5548497.505</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1204,37 +1210,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.158718815262866</v>
+        <v>0.0009060249701124999</v>
       </c>
       <c r="G10">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0.948275862068966</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.168</v>
+        <v>0.1545</v>
       </c>
       <c r="K10">
-        <v>0.0130446428571429</v>
+        <v>0.0438985915492958</v>
       </c>
       <c r="L10">
-        <v>-0.0093710910970908</v>
+        <v>0.0179523502292163</v>
       </c>
       <c r="M10">
-        <v>0.0439083405455874</v>
+        <v>0.0763716648029453</v>
       </c>
       <c r="N10">
-        <v>7.76466836734694</v>
+        <v>28.4133278636219</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>1802380.424</v>
@@ -1243,19 +1249,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1275,37 +1281,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.208304477015604</v>
+        <v>0.0012336510775494</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.689655172413793</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.275</v>
+        <v>0.29</v>
       </c>
       <c r="K11">
-        <v>0.0153466386554622</v>
+        <v>0.0615386521308226</v>
       </c>
       <c r="L11">
-        <v>-0.0144956097695704</v>
+        <v>0.027040561589022</v>
       </c>
       <c r="M11">
-        <v>0.0619722514203243</v>
+        <v>0.09601101832171779</v>
       </c>
       <c r="N11">
-        <v>5.58059587471352</v>
+        <v>21.2202248726974</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11">
         <v>1802380.424</v>
@@ -1314,19 +1320,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1346,37 +1352,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0581912968373888</v>
+        <v>6.683463762982709E-08</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.827586206896552</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0445</v>
+        <v>0.046</v>
       </c>
       <c r="K12">
-        <v>0.0085291895604395</v>
+        <v>0.0242900246305419</v>
       </c>
       <c r="L12">
-        <v>-2.52825207056441E-05</v>
+        <v>0.0166672006237436</v>
       </c>
       <c r="M12">
-        <v>0.0172322298476034</v>
+        <v>0.0345435029060465</v>
       </c>
       <c r="N12">
-        <v>19.1667181133473</v>
+        <v>52.8044013707432</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q12">
         <v>1802380.424</v>
@@ -1385,19 +1391,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1411,43 +1417,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.412482784417495</v>
+        <v>0.113621400249398</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.982758620689655</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.49</v>
+        <v>5.475</v>
       </c>
       <c r="K13">
-        <v>0.227372930304197</v>
+        <v>0.493116169544741</v>
       </c>
       <c r="L13">
-        <v>-0.424176534683208</v>
+        <v>-0.145570423923808</v>
       </c>
       <c r="M13">
-        <v>0.583676446576373</v>
+        <v>2.21626279159337</v>
       </c>
       <c r="N13">
-        <v>4.14158342994895</v>
+        <v>9.00668802821445</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q13">
         <v>1802380.424</v>
@@ -1456,19 +1462,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1488,37 +1494,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.758604265111704</v>
+        <v>0.576421745036698</v>
       </c>
       <c r="G14">
-        <v>0.019047619047619</v>
+        <v>0.02</v>
       </c>
       <c r="H14">
-        <v>0.666666666666667</v>
+        <v>0.68</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.6</v>
+        <v>0.485</v>
       </c>
       <c r="K14">
-        <v>0.009970427661510401</v>
+        <v>0.0026719796008589</v>
       </c>
       <c r="L14">
-        <v>-0.0226321348691206</v>
+        <v>-0.030103021978022</v>
       </c>
       <c r="M14">
-        <v>0.0244475569764503</v>
+        <v>0.0170246624017024</v>
       </c>
       <c r="N14">
-        <v>1.66173794358508</v>
+        <v>0.550923629043075</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q14">
         <v>1802380.424</v>
@@ -1527,19 +1533,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1559,37 +1565,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.8926654614562261</v>
+        <v>0.834246586606839</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.905172413793103</v>
+        <v>0.922413793103448</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.6</v>
+        <v>10.62</v>
       </c>
       <c r="K15">
-        <v>0.0232643312101906</v>
+        <v>0.0183375171154723</v>
       </c>
       <c r="L15">
-        <v>-0.006689325524545</v>
+        <v>-0.015195922413123</v>
       </c>
       <c r="M15">
-        <v>0.0535139804220237</v>
+        <v>0.0533071069529885</v>
       </c>
       <c r="N15">
-        <v>0.219474822737647</v>
+        <v>0.172669652688063</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>1802380.424</v>
@@ -1598,19 +1604,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1624,43 +1630,43 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.0083526190855789</v>
+        <v>2.88188799620752E-06</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.355932203389831</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="K16">
-        <v>0.0007572232719256</v>
+        <v>0.0024467807964272</v>
       </c>
       <c r="L16">
-        <v>0.0001999178981937</v>
+        <v>0.0014210962790229</v>
       </c>
       <c r="M16">
-        <v>0.0015051510989011</v>
+        <v>0.0038005672331855</v>
       </c>
       <c r="N16">
-        <v>4.4542545407393</v>
+        <v>13.593226646818</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q16">
         <v>1802380.424</v>
@@ -1669,19 +1675,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1701,37 +1707,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.228983774323231</v>
+        <v>0.131074235996688</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.627118644067797</v>
+        <v>0.686440677966102</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K17">
-        <v>2.12579365079365</v>
+        <v>3.47590176515733</v>
       </c>
       <c r="L17">
-        <v>-2.85102203664561</v>
+        <v>-1.71090118360954</v>
       </c>
       <c r="M17">
-        <v>6.95714285714286</v>
+        <v>9.81429169634635</v>
       </c>
       <c r="N17">
-        <v>2.12579365079365</v>
+        <v>3.15991069559757</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q17">
         <v>1802380.424</v>
@@ -1740,19 +1746,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1769,40 +1775,40 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>6.341165487666621E-09</v>
+        <v>1.82487257354894E-09</v>
       </c>
       <c r="G18">
+        <v>0.535714285714286</v>
+      </c>
+      <c r="H18">
         <v>0.571428571428571</v>
-      </c>
-      <c r="H18">
-        <v>0.535714285714286</v>
       </c>
       <c r="I18">
         <v>13</v>
       </c>
       <c r="J18">
-        <v>0.0063981591412017</v>
+        <v>0.0075311258871934</v>
       </c>
       <c r="K18">
-        <v>0.0012131088852111</v>
+        <v>0.0018586630294093</v>
       </c>
       <c r="L18">
-        <v>0.0004538385307815</v>
+        <v>0.0009643768155382</v>
       </c>
       <c r="M18">
-        <v>0.0020192352804363</v>
+        <v>0.0029497629630821</v>
       </c>
       <c r="N18">
-        <v>18.9602799561391</v>
+        <v>24.6797498441769</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q18">
         <v>1802380.424</v>
@@ -1811,19 +1817,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1840,16 +1846,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>0.0005310021072395</v>
+        <v>0.0008827871908147</v>
       </c>
       <c r="G19">
-        <v>0.254237288135593</v>
+        <v>0.271186440677966</v>
       </c>
       <c r="H19">
-        <v>0.144067796610169</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1858,22 +1864,22 @@
         <v>0.003</v>
       </c>
       <c r="K19">
-        <v>0.0001999178981937</v>
+        <v>0.0001545643922868</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0003325060382324</v>
+        <v>0.0002508585164835</v>
       </c>
       <c r="N19">
-        <v>6.66392993979201</v>
+        <v>5.15214640956287</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q19">
         <v>1802380.424</v>
@@ -1882,19 +1888,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1914,37 +1920,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>7.84872196139218E-05</v>
+        <v>8.243521694801291E-05</v>
       </c>
       <c r="G20">
-        <v>0.254237288135593</v>
+        <v>0.203389830508475</v>
       </c>
       <c r="H20">
-        <v>0.669491525423729</v>
+        <v>0.686440677966102</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0.06155</v>
+        <v>0.097</v>
       </c>
       <c r="K20">
-        <v>0.0029221410578239</v>
+        <v>0.0044536170881311</v>
       </c>
       <c r="L20">
-        <v>0.0006980986370625001</v>
+        <v>0.0016807745711953</v>
       </c>
       <c r="M20">
-        <v>0.0067509972176113</v>
+        <v>0.0089963054187192</v>
       </c>
       <c r="N20">
-        <v>4.74758904601781</v>
+        <v>4.5913578228156</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q20">
         <v>1802380.424</v>
@@ -1953,19 +1959,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1982,16 +1988,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F21">
-        <v>0.310565022980002</v>
+        <v>0.5545793645927271</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.617391304347826</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2000,22 +2006,22 @@
         <v>8</v>
       </c>
       <c r="K21">
-        <v>-0.0033447802197801</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>-0.01766385383299</v>
+        <v>-0.0130089361311991</v>
       </c>
       <c r="M21">
-        <v>0.0074978627234024</v>
+        <v>0.0132637082174794</v>
       </c>
       <c r="N21">
-        <v>-0.0418097527472519</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q21">
         <v>1802380.424</v>
@@ -2024,16 +2030,16 @@
         <v>5548497.505</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2053,37 +2059,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>5.93709508582217E-06</v>
+        <v>1.60422706657472E-06</v>
       </c>
       <c r="G22">
         <v>0.11864406779661</v>
       </c>
       <c r="H22">
-        <v>0.745762711864407</v>
+        <v>0.73728813559322</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.1075</v>
+        <v>0.1395</v>
       </c>
       <c r="K22">
-        <v>0.0072748969780219</v>
+        <v>0.0113560696135752</v>
       </c>
       <c r="L22">
-        <v>0.0037994508211256</v>
+        <v>0.0050002138420072</v>
       </c>
       <c r="M22">
-        <v>0.0144269496501191</v>
+        <v>0.0164571793151783</v>
       </c>
       <c r="N22">
-        <v>6.76734602606696</v>
+        <v>8.140551694319139</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q22">
         <v>1802380.424</v>
@@ -2092,19 +2098,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2124,37 +2130,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.006739324542293</v>
+        <v>0.0026379518515545</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.584745762711864</v>
+        <v>0.533898305084746</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="K23">
-        <v>0.0077612357111279</v>
+        <v>0.0100183113611628</v>
       </c>
       <c r="L23">
-        <v>0.0026731934552273</v>
+        <v>0.0039983579638752</v>
       </c>
       <c r="M23">
-        <v>0.0159171495887757</v>
+        <v>0.0192513409104087</v>
       </c>
       <c r="N23">
-        <v>3.23384821296998</v>
+        <v>3.71048568931956</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q23">
         <v>1802380.424</v>
@@ -2163,19 +2169,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2189,43 +2195,43 @@
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.0099151653816661</v>
+        <v>0.0001777685748635</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.61864406779661</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0355</v>
+        <v>0.042</v>
       </c>
       <c r="K24">
-        <v>0.0019965837656735</v>
+        <v>0.0044219128329297</v>
       </c>
       <c r="L24">
-        <v>0.0005997536945812</v>
+        <v>0.0021892926086699</v>
       </c>
       <c r="M24">
-        <v>0.0039830970556161</v>
+        <v>0.007503153722487</v>
       </c>
       <c r="N24">
-        <v>5.62417962161549</v>
+        <v>10.5283638879281</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q24">
         <v>1802380.424</v>
@@ -2234,19 +2240,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2266,37 +2272,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.426672675337047</v>
+        <v>0.673257326250228</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.949152542372881</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.875</v>
+        <v>6.145</v>
       </c>
       <c r="K25">
-        <v>0.0173353456382705</v>
+        <v>-0.0537453714403733</v>
       </c>
       <c r="L25">
-        <v>-0.226312844349207</v>
+        <v>-0.280836118329549</v>
       </c>
       <c r="M25">
-        <v>0.256678289841805</v>
+        <v>0.201027247123332</v>
       </c>
       <c r="N25">
-        <v>0.295069712991839</v>
+        <v>-0.8746195515113639</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q25">
         <v>1802380.424</v>
@@ -2305,19 +2311,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2337,37 +2343,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.195004682349985</v>
+        <v>0.05894644262536</v>
       </c>
       <c r="G26">
-        <v>0.0134228187919463</v>
+        <v>0.0137931034482759</v>
       </c>
       <c r="H26">
-        <v>0.550335570469799</v>
+        <v>0.56551724137931</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="K26">
-        <v>-0.0126035196687371</v>
+        <v>-0.0249663952119309</v>
       </c>
       <c r="L26">
-        <v>-0.0395047764262779</v>
+        <v>-0.0539676887085733</v>
       </c>
       <c r="M26">
-        <v>0.0064771983183922</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-1.32668628091969</v>
+        <v>-2.77404391243677</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q26">
         <v>1802380.424</v>
@@ -2376,19 +2382,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2408,37 +2414,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.588870662920885</v>
+        <v>0.942081061967101</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.827586206896552</v>
+        <v>0.839080459770115</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.62</v>
+        <v>10.6</v>
       </c>
       <c r="K27">
-        <v>0.0033305471124619</v>
+        <v>0.0198775510204077</v>
       </c>
       <c r="L27">
-        <v>-0.023587435971062</v>
+        <v>-0.0016665780820307</v>
       </c>
       <c r="M27">
-        <v>0.0287999274836497</v>
+        <v>0.0439819376026273</v>
       </c>
       <c r="N27">
-        <v>0.0313610839214871</v>
+        <v>0.187524066230262</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q27">
         <v>1802380.424</v>
@@ -2447,19 +2453,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2479,37 +2485,37 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>7.82643504634936E-08</v>
+        <v>1.77507591253346E-09</v>
       </c>
       <c r="G28">
-        <v>0.0395480225988701</v>
+        <v>0.0225988700564972</v>
       </c>
       <c r="H28">
-        <v>0.282485875706215</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="K28">
-        <v>0.0007803296381931</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L28">
-        <v>0.0004969829152767</v>
+        <v>0.0007511323964642</v>
       </c>
       <c r="M28">
-        <v>0.001003434065934</v>
+        <v>0.001499533399849</v>
       </c>
       <c r="N28">
-        <v>5.57378312995112</v>
+        <v>6.27146291208792</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q28">
         <v>1802380.424</v>
@@ -2518,19 +2524,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2547,16 +2553,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>0.606521233365123</v>
+        <v>0.502530893001951</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.632768361581921</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2565,22 +2571,22 @@
         <v>110</v>
       </c>
       <c r="K29">
-        <v>-0.455866884835022</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-4.08998093647847</v>
+        <v>-3.6799228525945</v>
       </c>
       <c r="M29">
-        <v>2.40337629981366</v>
+        <v>3.09432444163498</v>
       </c>
       <c r="N29">
-        <v>-0.414424440759111</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q29">
         <v>1802380.424</v>
@@ -2589,19 +2595,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2621,19 +2627,19 @@
         <v>37</v>
       </c>
       <c r="F30">
-        <v>0.0001851790377544</v>
+        <v>9.747914941792919E-05</v>
       </c>
       <c r="G30">
-        <v>0.568047337278107</v>
+        <v>0.544378698224852</v>
       </c>
       <c r="H30">
-        <v>0.502958579881657</v>
+        <v>0.526627218934911</v>
       </c>
       <c r="I30">
         <v>14</v>
       </c>
       <c r="J30">
-        <v>0.0057790384389834</v>
+        <v>0.006989658784137</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2642,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0002212043071053</v>
+        <v>0.0004977180678244</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q30">
         <v>1802380.424</v>
@@ -2660,19 +2666,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2692,13 +2698,13 @@
         <v>37</v>
       </c>
       <c r="F31">
-        <v>0.0001478619229472</v>
+        <v>2.47738260355528E-05</v>
       </c>
       <c r="G31">
-        <v>0.353293413173653</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H31">
-        <v>0.119760479041916</v>
+        <v>0.112994350282486</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2707,22 +2713,22 @@
         <v>0.0025</v>
       </c>
       <c r="K31">
-        <v>4.56106393606394E-05</v>
+        <v>0.000100150808884</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0001663517692458</v>
+        <v>0.00018240433104</v>
       </c>
       <c r="N31">
-        <v>1.82442557442557</v>
+        <v>4.00603235536057</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q31">
         <v>1802380.424</v>
@@ -2731,19 +2737,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2763,37 +2769,37 @@
         <v>37</v>
       </c>
       <c r="F32">
-        <v>0.008658071439515001</v>
+        <v>0.0003488699850047</v>
       </c>
       <c r="G32">
-        <v>0.25748502994012</v>
+        <v>0.242937853107345</v>
       </c>
       <c r="H32">
-        <v>0.634730538922156</v>
+        <v>0.632768361581921</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>0.074</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="K32">
-        <v>0.0005006574747429</v>
+        <v>0.0014310011531577</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0022374171203987</v>
+        <v>0.0035004083520863</v>
       </c>
       <c r="N32">
-        <v>0.676564155058088</v>
+        <v>1.70357280137822</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q32">
         <v>1802380.424</v>
@@ -2802,19 +2808,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2828,43 +2834,43 @@
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.999913747819636</v>
+        <v>0.995501712264071</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.546511627906977</v>
+        <v>0.523255813953488</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.93</v>
+        <v>7.98</v>
       </c>
       <c r="K33">
-        <v>0.0222341997736783</v>
+        <v>0.0141550419757907</v>
       </c>
       <c r="L33">
-        <v>0.012947021800568</v>
+        <v>0.004990306346916</v>
       </c>
       <c r="M33">
-        <v>0.0325564116230323</v>
+        <v>0.0221692105524702</v>
       </c>
       <c r="N33">
-        <v>0.280380829428477</v>
+        <v>0.177381478393367</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q33">
         <v>1802380.424</v>
@@ -2873,16 +2879,16 @@
         <v>5548497.505</v>
       </c>
       <c r="S33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2899,40 +2905,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>0.0306100440906035</v>
+        <v>0.00021667498069</v>
       </c>
       <c r="G34">
-        <v>0.0847457627118644</v>
+        <v>0.07909604519774011</v>
       </c>
       <c r="H34">
         <v>0.76271186440678</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="K34">
-        <v>0.0015405881017401</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>0.0018721345512769</v>
       </c>
       <c r="M34">
-        <v>0.0034289192959185</v>
+        <v>0.0072000848720437</v>
       </c>
       <c r="N34">
-        <v>1.40053463794562</v>
+        <v>3.21098901098899</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q34">
         <v>1802380.424</v>
@@ -2941,19 +2947,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2973,37 +2979,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.288695693261211</v>
+        <v>0.0345145904259819</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.548022598870056</v>
+        <v>0.553672316384181</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="K35">
-        <v>0.0012553721551986</v>
+        <v>0.0039983579638752</v>
       </c>
       <c r="L35">
-        <v>-0.0016896996289957</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0039983579638752</v>
+        <v>0.0073436943534934</v>
       </c>
       <c r="N35">
-        <v>0.523071731332761</v>
+        <v>1.59934318555008</v>
       </c>
       <c r="O35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q35">
         <v>1802380.424</v>
@@ -3012,19 +3018,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3038,43 +3044,43 @@
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.0487603821793523</v>
+        <v>0.0034367975070689</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.536723163841808</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="K36">
-        <v>0.0006466763322626</v>
+        <v>0.0015169921011281</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>0.0005378260256511</v>
       </c>
       <c r="M36">
-        <v>0.0014023433512763</v>
+        <v>0.0026278514183888</v>
       </c>
       <c r="N36">
-        <v>1.90198921253714</v>
+        <v>3.992084476653</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q36">
         <v>1802380.424</v>
@@ -3083,19 +3089,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3115,13 +3121,13 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.744754967108164</v>
+        <v>0.72073217276769</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.937853107344633</v>
+        <v>0.926553672316384</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3130,22 +3136,22 @@
         <v>6.72</v>
       </c>
       <c r="K37">
-        <v>-0.0565940202906498</v>
+        <v>-0.0578232823667033</v>
       </c>
       <c r="L37">
-        <v>-0.221155285643167</v>
+        <v>-0.272403989301773</v>
       </c>
       <c r="M37">
-        <v>0.0605303426078369</v>
+        <v>0.0610989307001271</v>
       </c>
       <c r="N37">
-        <v>-0.842172920991813</v>
+        <v>-0.860465511409275</v>
       </c>
       <c r="O37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q37">
         <v>1802380.424</v>
@@ -3154,19 +3160,19 @@
         <v>5548497.505</v>
       </c>
       <c r="S37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
